--- a/biology/Botanique/Myosotis_nain/Myosotis_nain.xlsx
+++ b/biology/Botanique/Myosotis_nain/Myosotis_nain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eritrichium nanum
 Le myosotis nain (Eritrichium nanum)  est une espèce de plantes vivaces de la famille des Boraginaceae.On l'appelle encore « éritriche nain », « roi des Alpes », « mousse d'Azur », « myosotis des neiges ».
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante vigoureuse de 3 à 8 cm de haut, à racine pivotante, formant des tapis ou des coussinets arrondis de 3 à 10 cm de diamètre, couverts de longs poils soyeux.
 Les petites feuilles en rosette sont entières, oblongues, lancéolées, velues et soyeuses.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve le myosotis nain dans 2 grandes chaines de montagnes en Europe, les Alpes et les Carpates. Il est présent de la France à l'Autriche et pousse dans les croupes et les crêtes rocheuses de l'étage alpin (3 000 m d'altitude). Ses milieux de prédilection sont les espaces rocheux avec une affinité plus importante pour les roches siliceuses.
 			Eritrichium nanum dans les Grandes Rousses en Oisans
